--- a/va_facility_data_2025-02-20/Brooksville VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Brooksville%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Brooksville VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Brooksville%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rb9214a19d7f542b09fa1de7243a094e4"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R2a770ae45336429dac7b4d8d911add0c"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R8b7a8fe3a0f44352ad9394249ad6b771"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R300d750b48a7437790be2951ab74837c"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R77b66e3b3eb44521909161f4f1246cf5"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rff27c198caa842cb8d5a98408940ef30"/>
   </x:sheets>
 </x:workbook>
 </file>
